--- a/data/trans_dic/P38A-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Clase-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.8744473140937783</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8818998230965202</v>
+        <v>0.8818998230965203</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.9190923473283269</v>
@@ -655,7 +655,7 @@
         <v>0.9361190877794467</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.9067221188903614</v>
+        <v>0.9067221188903613</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.9129367010017605</v>
@@ -664,7 +664,7 @@
         <v>0.9020161173921069</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.8935679071470615</v>
+        <v>0.8935679071470614</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.87674909057039</v>
+        <v>0.8745094834406332</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8388407148138265</v>
+        <v>0.8343176135889483</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8473685329088516</v>
+        <v>0.8472544304398166</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8832538767077101</v>
+        <v>0.8822231207785207</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9086663500250868</v>
+        <v>0.9041858937615006</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8798531388743603</v>
+        <v>0.8820120800635715</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8882828450740134</v>
+        <v>0.8900482768686915</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8768176222236712</v>
+        <v>0.8776464388255941</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8710064006858647</v>
+        <v>0.8713101326851751</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9340269975204113</v>
+        <v>0.9333740581194032</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9035583725697859</v>
+        <v>0.9043075744562746</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9106292197935149</v>
+        <v>0.9096114452931049</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9457674585841185</v>
+        <v>0.9470787531520151</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9606345889244935</v>
+        <v>0.9563291787205775</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9289029592072711</v>
+        <v>0.9291543183810484</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9314293492503514</v>
+        <v>0.9322017450674555</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9217499215431152</v>
+        <v>0.9235718253089413</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9118448339025493</v>
+        <v>0.9118248614203238</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.8811911564198635</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8900842375956707</v>
+        <v>0.8900842375956706</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.94046859685863</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8730649013540769</v>
+        <v>0.8745451182301273</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.844881481541301</v>
+        <v>0.8445914242795582</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8552778329109441</v>
+        <v>0.8518431297145158</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9081923722281194</v>
+        <v>0.9098367800798873</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8691658135849692</v>
+        <v>0.8683136595712144</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8601555149977899</v>
+        <v>0.8613915463492889</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8997366506151255</v>
+        <v>0.8979873294455918</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8683822261450833</v>
+        <v>0.8676605449453181</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8683142604593888</v>
+        <v>0.8707075657507375</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9326185942523669</v>
+        <v>0.9303463593077808</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9152541861635447</v>
+        <v>0.9119845014025244</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9169083321542387</v>
+        <v>0.9157399912720691</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9615798395139727</v>
+        <v>0.961958882954938</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9299411450973762</v>
+        <v>0.9291707254378785</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9217483334962782</v>
+        <v>0.9175477696869879</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9404475709142871</v>
+        <v>0.938506924892805</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.912213402662499</v>
+        <v>0.9136701571505382</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9116611102162319</v>
+        <v>0.9136045678231662</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.9241005333958106</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.9316903910639012</v>
+        <v>0.9316903910639011</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.9022883459507866</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8704411383292742</v>
+        <v>0.8725057702242776</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8497459745838238</v>
+        <v>0.8527182965858168</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8542624351134364</v>
+        <v>0.8519064495357805</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8738088679807242</v>
+        <v>0.871146892062623</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8723236350441296</v>
+        <v>0.8794350874793645</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8902158477622899</v>
+        <v>0.8938341254891229</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8806498645763251</v>
+        <v>0.8805934795941786</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8646898357865064</v>
+        <v>0.8657005705098073</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8714293978541316</v>
+        <v>0.8690492497412899</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9200213194728435</v>
+        <v>0.9209587021786052</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9083329069815949</v>
+        <v>0.9083822292305543</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.917712321119269</v>
+        <v>0.9172081243280497</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9442432416066192</v>
+        <v>0.9443738827255694</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.959459898418753</v>
+        <v>0.9576858775239941</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9584757928736352</v>
+        <v>0.9600568662806354</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9200108915706664</v>
+        <v>0.9210091201134731</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9128843023080805</v>
+        <v>0.9130503841052356</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9231430563300412</v>
+        <v>0.9226682696621507</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.878670697434889</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.877052692516999</v>
+        <v>0.8770526925169992</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8574833967284531</v>
+        <v>0.8585271759465236</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8480493366276556</v>
+        <v>0.849470620870866</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.826856123410259</v>
+        <v>0.8260169679697591</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8660264363318569</v>
+        <v>0.8598241388960597</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8682507019166488</v>
+        <v>0.8682156642343694</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8882629822947413</v>
+        <v>0.8877462955895489</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8668325092135202</v>
+        <v>0.8675532263596192</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8641477061544423</v>
+        <v>0.8630073363636648</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8590251562604678</v>
+        <v>0.8597854542118296</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8977558648406323</v>
+        <v>0.8994798316879646</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8881124976445766</v>
+        <v>0.8897459613281482</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8771557437491816</v>
+        <v>0.8769446053716433</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.910888588893072</v>
+        <v>0.9095702913678992</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9133837685823856</v>
+        <v>0.910667429299757</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.925244371851895</v>
+        <v>0.9268848320736877</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8965832829729098</v>
+        <v>0.8974683972090293</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8938373789247138</v>
+        <v>0.8924400086965193</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8931280390820883</v>
+        <v>0.8933249065124821</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.8229557273212663</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7920360489046944</v>
+        <v>0.7920360489046941</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.9271512150888721</v>
@@ -1091,7 +1091,7 @@
         <v>0.8998559085822846</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.9006747866692467</v>
+        <v>0.9006747866692469</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.8886598145585177</v>
@@ -1100,7 +1100,7 @@
         <v>0.8648179261865053</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.8565639435269486</v>
+        <v>0.8565639435269483</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7950444523313808</v>
+        <v>0.7959632219625277</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7890493721889346</v>
+        <v>0.7891033522126392</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7509738526060465</v>
+        <v>0.7442741293339376</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9057536512225499</v>
+        <v>0.9062054854580993</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.876649408562743</v>
+        <v>0.8771764967796688</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8794117020467795</v>
+        <v>0.8806774659301897</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8701547387179679</v>
+        <v>0.8695514264337781</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8469455166967923</v>
+        <v>0.8457402724946288</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8338184673666035</v>
+        <v>0.8341979318951447</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8610514482934528</v>
+        <v>0.8642411314640188</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.855465868086059</v>
+        <v>0.8509140099531686</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8300003771972937</v>
+        <v>0.829327179789426</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9449692387310415</v>
+        <v>0.945168615941989</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9212588880225556</v>
+        <v>0.9201414813527089</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.919190955660299</v>
+        <v>0.9193377789267889</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9064243188657941</v>
+        <v>0.9044891089048603</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8837856096243684</v>
+        <v>0.8818527715405926</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8780109168591099</v>
+        <v>0.8766052580893862</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4477960164880525</v>
+        <v>0.446021371486712</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4809929774873845</v>
+        <v>0.4678526853180316</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3300394715563361</v>
+        <v>0.3242814096318373</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.838979986595441</v>
+        <v>0.839978055822917</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8628885104361115</v>
+        <v>0.8659136734015582</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7869643664578693</v>
+        <v>0.7894138255217662</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7692021062426854</v>
+        <v>0.7693051149615637</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.7912328099520687</v>
+        <v>0.7907769250797613</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.6983115725793314</v>
+        <v>0.6984200243900131</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5714846853909021</v>
+        <v>0.5687157619319406</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5991545167989473</v>
+        <v>0.595088145875041</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5261699959958138</v>
+        <v>0.5218136451019729</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8799254717029658</v>
+        <v>0.8797048696591923</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9030833793835257</v>
+        <v>0.9028883160042723</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8511655339627141</v>
+        <v>0.8521853130019581</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8116864087296685</v>
+        <v>0.8115859860368694</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.832463727471845</v>
+        <v>0.8332511817280653</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7678217431228235</v>
+        <v>0.768837076332472</v>
       </c>
     </row>
     <row r="22">
@@ -1318,7 +1318,7 @@
         <v>0.8681314157259186</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.857739031157231</v>
+        <v>0.8577390311572312</v>
       </c>
     </row>
     <row r="23">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8397678316547321</v>
+        <v>0.8409038341199138</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8229680446019189</v>
+        <v>0.82380862449228</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8113508530008949</v>
+        <v>0.8127278764091165</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8867659569517848</v>
+        <v>0.8870935393289084</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8876429482599292</v>
+        <v>0.8875808767567975</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8754623904916312</v>
+        <v>0.8748393764646233</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8680602711002794</v>
+        <v>0.8681732208617317</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8597378693693164</v>
+        <v>0.8594263931809326</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.8474184321195882</v>
+        <v>0.8475633628421256</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8647179016495185</v>
+        <v>0.8647871901100289</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8481902135964597</v>
+        <v>0.8499962994118213</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8432960589280465</v>
+        <v>0.8436118779272981</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9065508513940297</v>
+        <v>0.9070776250299449</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9080521256001296</v>
+        <v>0.9077845471678448</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8966934396019006</v>
+        <v>0.8977062456982957</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8836243382390065</v>
+        <v>0.8843831663330133</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8764218848855951</v>
+        <v>0.8759336855580545</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8666605854382583</v>
+        <v>0.8672823509969101</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>380709</v>
+        <v>379737</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>359060</v>
+        <v>357124</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>466576</v>
+        <v>466514</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>276819</v>
+        <v>276496</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>314425</v>
+        <v>312875</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>429730</v>
+        <v>430784</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>664112</v>
+        <v>665432</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>678720</v>
+        <v>679362</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>905001</v>
+        <v>905316</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>405581</v>
+        <v>405297</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>386762</v>
+        <v>387083</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>501409</v>
+        <v>500848</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>296411</v>
+        <v>296822</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>332407</v>
+        <v>330918</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>453686</v>
+        <v>453809</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>696370</v>
+        <v>696948</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>713501</v>
+        <v>714911</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>947433</v>
+        <v>947412</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>364856</v>
+        <v>365474</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>317828</v>
+        <v>317718</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>413281</v>
+        <v>411621</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>306168</v>
+        <v>306722</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>323567</v>
+        <v>323250</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>363969</v>
+        <v>364492</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>679320</v>
+        <v>677999</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>649944</v>
+        <v>649404</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>787001</v>
+        <v>789170</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>389743</v>
+        <v>388794</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>344300</v>
+        <v>343070</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>443061</v>
+        <v>442497</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>324166</v>
+        <v>324294</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>346192</v>
+        <v>345905</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>390031</v>
+        <v>388254</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>710058</v>
+        <v>708592</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>682750</v>
+        <v>683840</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>826289</v>
+        <v>828050</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>546983</v>
+        <v>548281</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>441057</v>
+        <v>442600</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>402880</v>
+        <v>401769</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>227303</v>
+        <v>226611</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>144151</v>
+        <v>145327</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>166913</v>
+        <v>167591</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>782481</v>
+        <v>782431</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>591704</v>
+        <v>592395</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>574367</v>
+        <v>572798</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>578140</v>
+        <v>578729</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>471467</v>
+        <v>471492</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>432804</v>
+        <v>432566</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>245625</v>
+        <v>245659</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>158551</v>
+        <v>158258</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>179711</v>
+        <v>180008</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>817455</v>
+        <v>818341</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>624683</v>
+        <v>624797</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>608452</v>
+        <v>608139</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>985092</v>
+        <v>986291</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>968498</v>
+        <v>970121</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>935871</v>
+        <v>934922</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>663945</v>
+        <v>659190</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>714651</v>
+        <v>714622</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>764982</v>
+        <v>764537</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1660396</v>
+        <v>1661777</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1698157</v>
+        <v>1695916</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1712084</v>
+        <v>1713599</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1031357</v>
+        <v>1033338</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1014251</v>
+        <v>1016117</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>992803</v>
+        <v>992564</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>698339</v>
+        <v>697328</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>751800</v>
+        <v>749564</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>796831</v>
+        <v>798243</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1717383</v>
+        <v>1719078</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1756500</v>
+        <v>1753754</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1780052</v>
+        <v>1780445</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>402428</v>
+        <v>402893</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>486116</v>
+        <v>486149</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>426526</v>
+        <v>422721</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>687981</v>
+        <v>688325</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>645274</v>
+        <v>645662</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>730659</v>
+        <v>731711</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1101388</v>
+        <v>1100624</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1145196</v>
+        <v>1143566</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1166357</v>
+        <v>1166888</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>435838</v>
+        <v>437453</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>527034</v>
+        <v>524229</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>471410</v>
+        <v>471028</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>717768</v>
+        <v>717920</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>678110</v>
+        <v>677288</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>763710</v>
+        <v>763832</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1147296</v>
+        <v>1144846</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1195009</v>
+        <v>1192395</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1228174</v>
+        <v>1226208</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>118188</v>
+        <v>117720</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>135244</v>
+        <v>131549</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>78295</v>
+        <v>76929</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>922601</v>
+        <v>923699</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>931044</v>
+        <v>934308</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>664419</v>
+        <v>666487</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1048886</v>
+        <v>1049027</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1076204</v>
+        <v>1075584</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>755230</v>
+        <v>755348</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>150834</v>
+        <v>150103</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>168468</v>
+        <v>167325</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>124822</v>
+        <v>123789</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>967628</v>
+        <v>967385</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>974413</v>
+        <v>974203</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>718623</v>
+        <v>719484</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1106818</v>
+        <v>1106681</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1132285</v>
+        <v>1133356</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>830406</v>
+        <v>831504</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2854748</v>
+        <v>2858610</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2767274</v>
+        <v>2770101</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2793056</v>
+        <v>2797796</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>3136093</v>
+        <v>3137252</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>3126012</v>
+        <v>3125794</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3182650</v>
+        <v>3180385</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>6020866</v>
+        <v>6021649</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>5918654</v>
+        <v>5916510</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>5997917</v>
+        <v>5998942</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2939564</v>
+        <v>2939800</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2852085</v>
+        <v>2858158</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2903026</v>
+        <v>2904114</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>3206063</v>
+        <v>3207926</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>3197887</v>
+        <v>3196945</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>3259833</v>
+        <v>3263515</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>6128818</v>
+        <v>6134082</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>6033511</v>
+        <v>6030150</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>6134110</v>
+        <v>6138511</v>
       </c>
     </row>
     <row r="32">
